--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf5-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf5-Fgfr2.xlsx
@@ -91,7 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,10 +537,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H2">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.6178978905384999</v>
+        <v>0.065313016329</v>
       </c>
       <c r="R2">
-        <v>3.707387343230999</v>
+        <v>0.391878097974</v>
       </c>
       <c r="S2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="T2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H3">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>4.708842521637833</v>
+        <v>0.8598469239195</v>
       </c>
       <c r="R3">
-        <v>28.253055129827</v>
+        <v>5.159081543517001</v>
       </c>
       <c r="S3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="T3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H4">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>0.0005096691123333333</v>
+        <v>0.0252082613835</v>
       </c>
       <c r="R4">
-        <v>0.003058014674</v>
+        <v>0.100833045534</v>
       </c>
       <c r="S4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="T4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H5">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.18037594450975</v>
+        <v>0.0001137061335</v>
       </c>
       <c r="R5">
-        <v>0.7215037780389999</v>
+        <v>0.000682236801</v>
       </c>
       <c r="S5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="T5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
     </row>
   </sheetData>
